--- a/InitData/t_regionprovince.xlsx
+++ b/InitData/t_regionprovince.xlsx
@@ -117,10 +117,10 @@
     <t>台湾省</t>
   </si>
   <si>
-    <t>香港特别行政区</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>澳门</t>
   </si>
 </sst>
 </file>

--- a/InitData/t_regionprovince.xlsx
+++ b/InitData/t_regionprovince.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -21,112 +21,133 @@
     <t>province</t>
   </si>
   <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>isdelete</t>
+  </si>
+  <si>
+    <t>deletetime</t>
+  </si>
+  <si>
+    <t>rowversion</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
     <t>北京市</t>
   </si>
   <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
     <t>天津市</t>
   </si>
   <si>
-    <t>河北省</t>
+    <t>江苏省</t>
   </si>
   <si>
     <t>山西省</t>
   </si>
   <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>苏鲁交界</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
     <t>内蒙古自治区</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>吉林省</t>
-  </si>
-  <si>
-    <t>黑龙江省</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广西壮族自治区</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>贵州省</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>西藏自治区</t>
-  </si>
-  <si>
-    <t>陕西省</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>青海省</t>
-  </si>
-  <si>
-    <t>宁夏回族自治区</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
-    <t>台湾省</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>澳门</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/M/d h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -141,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,12 +170,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:F36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -174,277 +197,507 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>110000</v>
+        <v>820000</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>120000</v>
+        <v>520000</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>130000</v>
+        <v>810000</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>140000</v>
+        <v>430000</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>150000</v>
+        <v>330000</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>210000</v>
+        <v>630000</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>220000</v>
+        <v>620000</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>230000</v>
+        <v>440000</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>310000</v>
+        <v>510000</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>320000</v>
+        <v>360000</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>340000</v>
+        <v>540000</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>360000</v>
+        <v>340000</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>370000</v>
+        <v>110000</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>410000</v>
+        <v>640000</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>420000</v>
+        <v>530000</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>440000</v>
+        <v>450000</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>450000</v>
+        <v>610000</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>460000</v>
+        <v>130000</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>500000</v>
+        <v>210000</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>510000</v>
+        <v>420000</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>520000</v>
+        <v>650000</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>530000</v>
+        <v>460000</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>540000</v>
+        <v>350000</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>610000</v>
+        <v>120000</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>620000</v>
+        <v>320000</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>630000</v>
+        <v>140000</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>640000</v>
+        <v>410000</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>710000</v>
+        <v>990000</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>810000</v>
+        <v>710000</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>820000</v>
+        <v>310000</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>150000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
